--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rln3-Rxfp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rln3-Rxfp1.xlsx
@@ -85,10 +85,10 @@
     <t>Rxfp1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.07963000000000001</v>
+        <v>0.029119</v>
       </c>
       <c r="N2">
-        <v>0.23889</v>
+        <v>0.087357</v>
       </c>
       <c r="O2">
-        <v>0.4826869960013498</v>
+        <v>0.4059019501247578</v>
       </c>
       <c r="P2">
-        <v>0.4826869960013498</v>
+        <v>0.4059019501247578</v>
       </c>
       <c r="Q2">
-        <v>0.01146576444</v>
+        <v>0.004192786572000001</v>
       </c>
       <c r="R2">
-        <v>0.10319187996</v>
+        <v>0.03773507914800001</v>
       </c>
       <c r="S2">
-        <v>0.4826869960013498</v>
+        <v>0.4059019501247578</v>
       </c>
       <c r="T2">
-        <v>0.4826869960013498</v>
+        <v>0.4059019501247578</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.029119</v>
+        <v>0.04229766666666667</v>
       </c>
       <c r="N3">
-        <v>0.08735699999999999</v>
+        <v>0.126893</v>
       </c>
       <c r="O3">
-        <v>0.1765083842341241</v>
+        <v>0.5896049103927664</v>
       </c>
       <c r="P3">
-        <v>0.1765083842341241</v>
+        <v>0.5896049103927664</v>
       </c>
       <c r="Q3">
-        <v>0.004192786572</v>
+        <v>0.006090356428000001</v>
       </c>
       <c r="R3">
-        <v>0.037735079148</v>
+        <v>0.054813207852</v>
       </c>
       <c r="S3">
-        <v>0.1765083842341241</v>
+        <v>0.5896049103927664</v>
       </c>
       <c r="T3">
-        <v>0.1765083842341241</v>
+        <v>0.5896049103927664</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05622333333333333</v>
+        <v>0.0003223333333333333</v>
       </c>
       <c r="N4">
-        <v>0.16867</v>
+        <v>0.000967</v>
       </c>
       <c r="O4">
-        <v>0.3408046197645261</v>
+        <v>0.004493139482475827</v>
       </c>
       <c r="P4">
-        <v>0.3408046197645261</v>
+        <v>0.004493139482475827</v>
       </c>
       <c r="Q4">
-        <v>0.00809548532</v>
+        <v>4.6412132E-05</v>
       </c>
       <c r="R4">
-        <v>0.07285936788</v>
+        <v>0.000417709188</v>
       </c>
       <c r="S4">
-        <v>0.3408046197645261</v>
+        <v>0.004493139482475827</v>
       </c>
       <c r="T4">
-        <v>0.3408046197645261</v>
+        <v>0.004493139482475827</v>
       </c>
     </row>
   </sheetData>
